--- a/Wyoming/AggregatedAmounts/WY_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/AggregatedAmounts/WY_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3FE9D-0763-4199-9BBF-A944568EEE60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85CDF75-5F42-4E89-B77B-274FAC7B944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="7" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="WaterSources" sheetId="9" r:id="rId5"/>
     <sheet name="ReportingUnits" sheetId="4" r:id="rId6"/>
     <sheet name="AggregatedAmounts" sheetId="5" r:id="rId7"/>
+    <sheet name="misc" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="268">
   <si>
     <t>Name</t>
   </si>
@@ -766,6 +767,92 @@
   <si>
     <t>make custom id</t>
   </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Agricultural Consumptive Use_Groundwater",</t>
+  </si>
+  <si>
+    <t>"Reservoirs and Gages",</t>
+  </si>
+  <si>
+    <t>"WaterYear",</t>
+  </si>
+  <si>
+    <t>"1",</t>
+  </si>
+  <si>
+    <t>"AFY",</t>
+  </si>
+  <si>
+    <t>"Cumulative",</t>
+  </si>
+  <si>
+    <t>"Annual",</t>
+  </si>
+  <si>
+    <t>"WYag_V1",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Agricultural Consumptive Use_Surface Water",</t>
+  </si>
+  <si>
+    <t>"WYag_V2",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Domestic Use_Groundwater",</t>
+  </si>
+  <si>
+    <t>"WYag_V3",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Domestic Use_Surface Water",</t>
+  </si>
+  <si>
+    <t>"WYag_V4",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Industrial Use_Groundwater",</t>
+  </si>
+  <si>
+    <t>"WYag_V5",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Industrial Use_Surface Water",</t>
+  </si>
+  <si>
+    <t>"WYag_V6",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Municipal Use_Cross Basin Diversion",</t>
+  </si>
+  <si>
+    <t>"WYag_V7",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Municipal Use_Groundwater",</t>
+  </si>
+  <si>
+    <t>"WYag_V8",</t>
+  </si>
+  <si>
+    <t>"Consumptive Use_Annual_Municipal Use_Surface Water",</t>
+  </si>
+  <si>
+    <t>"WYag_V9",</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Agricultural Consumptive Use_Groundwater
+Consumptive Use_Annual_Agricultural Consumptive Use_Surface Water
+Consumptive Use_Annual_Domestic Use_Groundwater
+Consumptive Use_Annual_Domestic Use_Surface Water
+Consumptive Use_Annual_Industrial Use_Groundwater
+Consumptive Use_Annual_Industrial Use_Surface Water
+Consumptive Use_Annual_Municipal Use_Cross Basin Diversion
+Consumptive Use_Annual_Municipal Use_Groundwater
+Consumptive Use_Annual_Municipal Use_Surface Water</t>
+  </si>
 </sst>
 </file>
 
@@ -1132,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1423,9 +1510,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1451,6 +1535,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1769,20 +1862,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>211</v>
       </c>
       <c r="B1" t="s">
@@ -1790,7 +1883,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>212</v>
       </c>
       <c r="B2" t="s">
@@ -1798,44 +1891,44 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="101" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="100"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="101"/>
+      <c r="C8" s="100"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -1845,19 +1938,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20"/>
-      <c r="C20" s="100"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21"/>
-      <c r="C21" s="100"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22"/>
@@ -2073,7 +2166,7 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="107" t="s">
         <v>216</v>
       </c>
       <c r="F6" s="85"/>
@@ -2101,7 +2194,7 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="107" t="s">
         <v>216</v>
       </c>
       <c r="F7" s="85"/>
@@ -2129,7 +2222,7 @@
       <c r="D8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="107" t="s">
         <v>216</v>
       </c>
       <c r="F8" s="85"/>
@@ -2211,7 +2304,7 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="107" t="s">
         <v>216</v>
       </c>
       <c r="F11" s="85"/>
@@ -2267,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2370,7 @@
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2306,7 +2399,7 @@
       <c r="D2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="108" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2364,7 +2457,7 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="33" t="s">
         <v>223</v>
       </c>
       <c r="F4" s="47"/>
@@ -2392,7 +2485,7 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="83">
         <v>1</v>
       </c>
       <c r="F5" s="26"/>
@@ -2420,8 +2513,8 @@
       <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>134</v>
+      <c r="E6" s="83" t="s">
+        <v>242</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="95"/>
@@ -2448,7 +2541,7 @@
       <c r="D7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="83" t="s">
         <v>217</v>
       </c>
       <c r="F7" s="26"/>
@@ -2476,7 +2569,7 @@
       <c r="D8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="83" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="26"/>
@@ -2504,7 +2597,7 @@
       <c r="D9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="83" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="26"/>
@@ -2532,7 +2625,7 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="109">
         <v>10</v>
       </c>
       <c r="F10" s="26"/>
@@ -2560,7 +2653,7 @@
       <c r="D11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="83" t="s">
         <v>149</v>
       </c>
       <c r="F11" s="26"/>
@@ -2588,7 +2681,7 @@
       <c r="D12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="83" t="s">
         <v>197</v>
       </c>
       <c r="F12" s="26"/>
@@ -2603,7 +2696,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="108" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -2616,8 +2709,8 @@
       <c r="D13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>197</v>
+      <c r="E13" s="110" t="s">
+        <v>267</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="95"/>
@@ -2775,7 +2868,7 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="104" t="s">
         <v>229</v>
       </c>
       <c r="F5" s="85"/>
@@ -2831,7 +2924,7 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="104" t="s">
         <v>230</v>
       </c>
       <c r="F7" s="85"/>
@@ -3497,7 +3590,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="105" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -3567,7 +3660,7 @@
       <c r="F7" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="106" t="s">
         <v>236</v>
       </c>
       <c r="H7" s="93" t="s">
@@ -3599,7 +3692,7 @@
       <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="106" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="93" t="s">
@@ -3839,7 +3932,7 @@
   <dimension ref="A1:K16431"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3848,7 +3941,7 @@
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="2" customWidth="1"/>
@@ -4065,7 +4158,7 @@
       <c r="D9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="42"/>
       <c r="G9" s="39"/>
       <c r="H9" s="16" t="s">
@@ -4092,7 +4185,7 @@
       <c r="D10" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="11"/>
       <c r="G10" s="22"/>
       <c r="H10" s="16" t="s">
@@ -4144,7 +4237,7 @@
       <c r="D12" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="36"/>
       <c r="G12" s="39"/>
       <c r="H12" s="16" t="s">
@@ -4349,7 +4442,9 @@
       <c r="D20" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="97"/>
+      <c r="E20" s="97">
+        <v>44600</v>
+      </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16" t="s">
@@ -53919,4 +54014,323 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6EAE8B-D68F-4F67-9AF7-DE1EF2E9926F}">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Wyoming/AggregatedAmounts/WY_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/AggregatedAmounts/WY_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85CDF75-5F42-4E89-B77B-274FAC7B944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A1BBDB-DCD3-4519-BBD6-97700D040632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="7" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="7" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -774,9 +774,6 @@
     <t>"Consumptive Use_Annual_Agricultural Consumptive Use_Groundwater",</t>
   </si>
   <si>
-    <t>"Reservoirs and Gages",</t>
-  </si>
-  <si>
     <t>"WaterYear",</t>
   </si>
   <si>
@@ -852,6 +849,9 @@
 Consumptive Use_Annual_Municipal Use_Cross Basin Diversion
 Consumptive Use_Annual_Municipal Use_Groundwater
 Consumptive Use_Annual_Municipal Use_Surface Water</t>
+  </si>
+  <si>
+    <t>"Consumptive Use",</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1338,22 +1338,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1371,7 +1362,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1392,43 +1383,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1447,10 +1408,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1494,9 +1452,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1868,14 +1823,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="83" t="s">
         <v>211</v>
       </c>
       <c r="B1" t="s">
@@ -1883,7 +1838,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="83" t="s">
         <v>212</v>
       </c>
       <c r="B2" t="s">
@@ -1891,44 +1846,44 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="86" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="100"/>
+      <c r="C7" s="85"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="100"/>
+      <c r="C8" s="85"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -1938,19 +1893,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20"/>
-      <c r="C20" s="99"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21"/>
-      <c r="C21" s="99"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22"/>
@@ -2027,10 +1982,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2043,7 +1998,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2075,22 +2030,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>11</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2114,11 +2069,11 @@
         <v>219</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="84"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>106</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2135,18 +2090,18 @@
       <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="35"/>
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="69" t="s">
         <v>108</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2166,15 +2121,15 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="35"/>
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="72">
         <v>0.5</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2194,15 +2149,15 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="85"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="35"/>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2219,18 +2174,18 @@
       <c r="C8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="85"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="35"/>
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="71" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2253,7 +2208,7 @@
       <c r="E9" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="35"/>
       <c r="H9" s="24" t="s">
         <v>11</v>
@@ -2279,12 +2234,12 @@
       <c r="E10" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="35"/>
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="69" t="s">
         <v>121</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2304,15 +2259,15 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="35"/>
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="69" t="s">
         <v>124</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2329,18 +2284,18 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="35"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="69" t="s">
         <v>127</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2361,7 +2316,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2396,10 +2351,10 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="93" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2428,16 +2383,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="87"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>16</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2460,12 +2415,12 @@
       <c r="E4" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="34"/>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>129</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2485,15 +2440,15 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="69">
         <v>1</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="95"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="69">
         <v>1</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2510,18 +2465,18 @@
       <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="69" t="s">
         <v>242</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="95"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="69" t="s">
         <v>134</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2538,18 +2493,18 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="69" t="s">
         <v>217</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="95"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="69" t="s">
         <v>137</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2566,18 +2521,18 @@
       <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="69" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="95"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="69" t="s">
         <v>140</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2594,18 +2549,18 @@
       <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="69" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="95"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="69" t="s">
         <v>143</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -2625,15 +2580,15 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="94">
         <v>10</v>
       </c>
       <c r="F10" s="26"/>
-      <c r="G10" s="95"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="69">
         <v>10</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2650,18 +2605,18 @@
       <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="69" t="s">
         <v>149</v>
       </c>
       <c r="F11" s="26"/>
-      <c r="G11" s="95"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="69" t="s">
         <v>149</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2678,18 +2633,18 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="69" t="s">
         <v>197</v>
       </c>
       <c r="F12" s="26"/>
-      <c r="G12" s="95"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="69" t="s">
         <v>152</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2706,18 +2661,18 @@
       <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="110" t="s">
-        <v>267</v>
+      <c r="E13" s="95" t="s">
+        <v>266</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="95"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="69" t="s">
         <v>155</v>
       </c>
       <c r="J13" s="17" t="s">
@@ -2773,7 +2728,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2805,16 +2760,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="75" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -2840,11 +2795,11 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="44" t="s">
         <v>224</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="84"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2868,10 +2823,10 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="35"/>
       <c r="H5" s="24" t="s">
         <v>11</v>
@@ -2899,7 +2854,7 @@
       <c r="E6" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="35"/>
       <c r="H6" s="24" t="s">
         <v>11</v>
@@ -2924,10 +2879,10 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="85"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="35"/>
       <c r="H7" s="24" t="s">
         <v>11</v>
@@ -2955,7 +2910,7 @@
       <c r="E8" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="85"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="35"/>
       <c r="H8" s="24" t="s">
         <v>11</v>
@@ -2980,10 +2935,10 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="35"/>
       <c r="H9" s="24" t="s">
         <v>11</v>
@@ -3008,10 +2963,10 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="35"/>
       <c r="H10" s="24" t="s">
         <v>11</v>
@@ -3036,10 +2991,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="35"/>
       <c r="H11" s="24" t="s">
         <v>11</v>
@@ -3067,7 +3022,7 @@
       <c r="E12" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="35"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
@@ -3189,22 +3144,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>34658</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -3228,11 +3183,11 @@
         <v>232</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>182</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -3255,16 +3210,16 @@
       <c r="E5" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -3287,16 +3242,16 @@
       <c r="E6" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -3313,22 +3268,22 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="69" t="s">
         <v>187</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -3351,16 +3306,16 @@
       <c r="E8" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="69" t="s">
         <v>190</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3383,16 +3338,16 @@
       <c r="E9" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="69">
         <v>17839</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -3421,10 +3376,10 @@
       <c r="G10" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="69" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -3453,7 +3408,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E3782C-18A9-45D3-B018-D5B7F7291E9F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -3474,14 +3429,14 @@
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3513,17 +3468,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -3535,17 +3490,17 @@
       <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -3567,19 +3522,17 @@
       <c r="G4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>64</v>
       </c>
@@ -3590,7 +3543,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="90" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -3599,19 +3552,17 @@
       <c r="G5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="61" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" s="36" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>66</v>
       </c>
@@ -3631,19 +3582,17 @@
       <c r="G6" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="63" t="s">
         <v>103</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>52</v>
       </c>
@@ -3660,22 +3609,20 @@
       <c r="F7" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="59" t="s">
         <v>98</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
@@ -3692,22 +3639,20 @@
       <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="59">
         <v>48001</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>59</v>
       </c>
@@ -3727,19 +3672,17 @@
       <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>54</v>
       </c>
@@ -3759,19 +3702,17 @@
       <c r="G10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>56</v>
       </c>
@@ -3791,19 +3732,17 @@
       <c r="G11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>62</v>
       </c>
@@ -3823,98 +3762,61 @@
       <c r="G12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="59" t="s">
         <v>101</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J13" s="45"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J14" s="45"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="45"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J16" s="45"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="42"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="23"/>
       <c r="D20" s="2"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="23"/>
       <c r="D22" s="2"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="23"/>
       <c r="D23" s="2"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="23"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="23"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="23"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="23"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="23"/>
       <c r="D28" s="2"/>
     </row>
@@ -3951,32 +3853,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="54" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -3990,16 +3892,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="55" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
@@ -4011,21 +3913,21 @@
       <c r="I3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="19"/>
@@ -4037,21 +3939,21 @@
       <c r="I4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="47" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="19"/>
@@ -4063,21 +3965,21 @@
       <c r="I5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="19"/>
@@ -4089,21 +3991,21 @@
       <c r="I6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19"/>
@@ -4115,21 +4017,21 @@
       <c r="I7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="47" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="19"/>
@@ -4141,25 +4043,25 @@
       <c r="I8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="39"/>
       <c r="H9" s="16" t="s">
         <v>11</v>
@@ -4173,19 +4075,19 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="102"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="11"/>
       <c r="G10" s="22"/>
       <c r="H10" s="16" t="s">
@@ -4200,16 +4102,16 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="26"/>
@@ -4225,19 +4127,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="102"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="36"/>
       <c r="G12" s="39"/>
       <c r="H12" s="16" t="s">
@@ -4252,21 +4154,21 @@
       <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="16" t="s">
         <v>11</v>
       </c>
@@ -4299,7 +4201,7 @@
       <c r="I14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4316,14 +4218,14 @@
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="49"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="27">
         <v>125483.1563</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="47" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4347,7 +4249,7 @@
       <c r="I16" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="47" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4373,7 +4275,7 @@
       <c r="I17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="47" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4387,7 +4289,7 @@
       <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="24"/>
@@ -4399,7 +4301,7 @@
       <c r="I18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="47" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4413,7 +4315,7 @@
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="24"/>
@@ -4425,7 +4327,7 @@
       <c r="I19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="47" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4439,10 +4341,10 @@
       <c r="C20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="82">
         <v>44600</v>
       </c>
       <c r="F20" s="24"/>
@@ -4453,7 +4355,7 @@
       <c r="I20" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="47" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4467,7 +4369,7 @@
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="24"/>
@@ -4479,7 +4381,7 @@
       <c r="I21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="47" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4505,7 +4407,7 @@
       <c r="I22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="47" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4531,7 +4433,7 @@
       <c r="I23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="47" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4557,7 +4459,7 @@
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="47" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4571,7 +4473,7 @@
       <c r="C25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="24"/>
@@ -4583,7 +4485,7 @@
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4609,7 +4511,7 @@
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4635,7 +4537,7 @@
       <c r="I27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="47" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4649,7 +4551,7 @@
       <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="24"/>
@@ -4661,7 +4563,7 @@
       <c r="I28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="50"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4673,7 +4575,7 @@
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="24"/>
@@ -4685,7 +4587,7 @@
       <c r="I29" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="47" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4699,7 +4601,7 @@
       <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="24"/>
@@ -4711,7 +4613,7 @@
       <c r="I30" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="47" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4725,7 +4627,7 @@
       <c r="C31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="24"/>
@@ -4737,7 +4639,7 @@
       <c r="I31" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="47" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4751,7 +4653,7 @@
       <c r="C32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="24"/>
@@ -4763,7 +4665,7 @@
       <c r="I32" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4777,7 +4679,7 @@
       <c r="C33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="24"/>
@@ -4789,25 +4691,25 @@
       <c r="I33" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I38" s="27"/>
@@ -4839,7 +4741,7 @@
     <row r="51" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51" s="2"/>
-      <c r="D51" s="46"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52"/>
@@ -4887,12 +4789,12 @@
     <row r="66" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66" s="2"/>
-      <c r="D66" s="46"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="67" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67" s="2"/>
-      <c r="D67" s="46"/>
+      <c r="D67" s="43"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68"/>
@@ -54021,7 +53923,7 @@
   <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54042,287 +53944,287 @@
         <v>243</v>
       </c>
       <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
         <v>244</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>245</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>246</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
         <v>247</v>
       </c>
-      <c r="F2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>248</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" t="s">
         <v>249</v>
-      </c>
-      <c r="I2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" t="s">
         <v>251</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" t="s">
         <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" t="s">
         <v>255</v>
-      </c>
-      <c r="B5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" t="s">
-        <v>248</v>
-      </c>
-      <c r="H5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" t="s">
         <v>257</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" t="s">
         <v>259</v>
-      </c>
-      <c r="B7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J8" t="s">
         <v>261</v>
-      </c>
-      <c r="B8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J9" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H9" t="s">
-        <v>249</v>
-      </c>
-      <c r="I9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" t="s">
         <v>265</v>
-      </c>
-      <c r="B10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" t="s">
-        <v>249</v>
-      </c>
-      <c r="I10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
